--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/52680723/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/52680723/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9984610080718994</v>
+        <v>0.9850870370864868</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9985427856445312</v>
+        <v>0.9855970740318298</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9977912902832031</v>
+        <v>0.791548490524292</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9856762886047363</v>
+        <v>0.8958359956741333</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9985584616661072</v>
+        <v>0.9856975078582764</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9985597729682922</v>
+        <v>0.9857379198074341</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9985730648040771</v>
+        <v>0.9858388304710388</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.998557984828949</v>
+        <v>0.9857345819473267</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9985730648040771</v>
+        <v>0.9858388304710388</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9985282421112061</v>
+        <v>0.9853764176368713</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9985826015472412</v>
+        <v>0.9858897924423218</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.994225800037384</v>
+        <v>0.942853569984436</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9985614418983459</v>
+        <v>0.9858388304710388</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9984238147735596</v>
+        <v>0.9379065632820129</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9985634684562683</v>
+        <v>0.9857006072998047</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9985614418983459</v>
+        <v>0.9856606721878052</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.933054506778717</v>
+        <v>0.7391772866249084</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9985460042953491</v>
+        <v>0.9854450821876526</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9984573125839233</v>
+        <v>0.9857140779495239</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.99856036901474</v>
+        <v>0.9857577085494995</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9985673427581787</v>
+        <v>0.9857614040374756</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9985712766647339</v>
+        <v>0.9857962131500244</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9985741376876831</v>
+        <v>0.9858152866363525</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9859834313392639</v>
+        <v>0.8988756537437439</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9350045323371887</v>
+        <v>0.7425394058227539</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9985392093658447</v>
+        <v>0.9855976700782776</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9985427856445312</v>
+        <v>0.9855970740318298</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9985610842704773</v>
+        <v>0.9856168627738953</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9985553622245789</v>
+        <v>0.9855341911315918</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9985318183898926</v>
+        <v>0.9855833053588867</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9985451698303223</v>
+        <v>0.9855307340621948</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9922316074371338</v>
+        <v>0.9483841061592102</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9938561320304871</v>
+        <v>0.942548930644989</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.994362473487854</v>
+        <v>0.9429593682289124</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9985461235046387</v>
+        <v>0.9855932593345642</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9943627119064331</v>
+        <v>0.9428547620773315</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9985716342926025</v>
+        <v>0.9858292937278748</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6405742168426514</v>
+        <v>0.5205722451210022</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9923259019851685</v>
+        <v>0.9488321542739868</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9985383749008179</v>
+        <v>0.985593855381012</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9898378849029541</v>
+        <v>0.9316840171813965</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9925210475921631</v>
+        <v>0.9489179253578186</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9943870306015015</v>
+        <v>0.9428668618202209</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9924876689910889</v>
+        <v>0.9483617544174194</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9923673272132874</v>
+        <v>0.9484577775001526</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9661881923675537</v>
+        <v>0.7929699420928955</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9924755692481995</v>
+        <v>0.9486032128334045</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9985842704772949</v>
+        <v>0.9858869910240173</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9921908974647522</v>
+        <v>0.9479076266288757</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.991737425327301</v>
+        <v>0.9433794021606445</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9985347986221313</v>
+        <v>0.9855198264122009</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9921908974647522</v>
+        <v>0.9479076266288757</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9921255707740784</v>
+        <v>0.9469114542007446</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.998565137386322</v>
+        <v>0.9857203364372253</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9985633492469788</v>
+        <v>0.9857847094535828</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9985697269439697</v>
+        <v>0.9858483076095581</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9944638609886169</v>
+        <v>0.9428762793540955</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.99854975938797</v>
+        <v>0.9855889678001404</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9985230565071106</v>
+        <v>0.9854425191879272</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9985439777374268</v>
+        <v>0.9856907725334167</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.998565137386322</v>
+        <v>0.9857636094093323</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9943913817405701</v>
+        <v>0.9429113268852234</v>
       </c>
     </row>
     <row r="64">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6561073660850525</v>
+        <v>0.8507421612739563</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.994392991065979</v>
+        <v>0.9430385231971741</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.994392991065979</v>
+        <v>0.9430385231971741</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9942435622215271</v>
+        <v>0.9422451853752136</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.994392991065979</v>
+        <v>0.9430385231971741</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9835768342018127</v>
+        <v>0.9091465473175049</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9985588192939758</v>
+        <v>0.9857409596443176</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9823262095451355</v>
+        <v>0.9309493899345398</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9985209107398987</v>
+        <v>0.9853751659393311</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9943565726280212</v>
+        <v>0.9430750012397766</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9985681772232056</v>
+        <v>0.9858387112617493</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9985373020172119</v>
+        <v>0.985576331615448</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9943565726280212</v>
+        <v>0.9430750012397766</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9985234141349792</v>
+        <v>0.9855073690414429</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9943565726280212</v>
+        <v>0.9430750012397766</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9985620379447937</v>
+        <v>0.985798716545105</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.994321346282959</v>
+        <v>0.9429798126220703</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9985402822494507</v>
+        <v>0.9854546785354614</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.994321346282959</v>
+        <v>0.9429798126220703</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9985300302505493</v>
+        <v>0.9854192733764648</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9985300302505493</v>
+        <v>0.9854192733764648</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9985696077346802</v>
+        <v>0.9858762621879578</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9943646192550659</v>
+        <v>0.9432536959648132</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.998441755771637</v>
+        <v>0.9852301478385925</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9942830204963684</v>
+        <v>0.9426105618476868</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9985427856445312</v>
+        <v>0.9854192733764648</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9985693693161011</v>
+        <v>0.985798716545105</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9985713958740234</v>
+        <v>0.9857942461967468</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9985705614089966</v>
+        <v>0.9858078956604004</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9985679388046265</v>
+        <v>0.985782265663147</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9985703229904175</v>
+        <v>0.9857930541038513</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9985711574554443</v>
+        <v>0.9857973456382751</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9985817670822144</v>
+        <v>0.9858594536781311</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9597489833831787</v>
+        <v>0.8421540260314941</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9985679388046265</v>
+        <v>0.9857968688011169</v>
       </c>
     </row>
     <row r="99">
@@ -3199,14 +3199,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.995901882648468</v>
+        <v>0.7705581188201904</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9985678195953369</v>
+        <v>0.9857836961746216</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9985675811767578</v>
+        <v>0.9857577085494995</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9792249798774719</v>
+        <v>0.8727402091026306</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9909093976020813</v>
+        <v>0.9447798728942871</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9985438585281372</v>
+        <v>0.9855624437332153</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.984355092048645</v>
+        <v>0.9111239314079285</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9985646605491638</v>
+        <v>0.9857548475265503</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9925844073295593</v>
+        <v>0.9501019716262817</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9858354330062866</v>
+        <v>0.8988142013549805</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9985494017601013</v>
+        <v>0.9857403635978699</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9985427856445312</v>
+        <v>0.9855970740318298</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9921682476997375</v>
+        <v>0.9481395483016968</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9922303557395935</v>
+        <v>0.9475930333137512</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9941056966781616</v>
+        <v>0.9429863095283508</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9985709190368652</v>
+        <v>0.9857914447784424</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9935855269432068</v>
+        <v>0.9416323304176331</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9984858632087708</v>
+        <v>0.9847971200942993</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.998540997505188</v>
+        <v>0.9855997562408447</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9756790995597839</v>
+        <v>0.8666151165962219</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5211611986160278</v>
+        <v>0.361217737197876</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9985427856445312</v>
+        <v>0.9855970740318298</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9840496778488159</v>
+        <v>0.9104198813438416</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.998582124710083</v>
+        <v>0.9858796000480652</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9840496778488159</v>
+        <v>0.9104198813438416</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.998582124710083</v>
+        <v>0.9858796000480652</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9840496778488159</v>
+        <v>0.9104198813438416</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9985583424568176</v>
+        <v>0.9857684969902039</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9756808280944824</v>
+        <v>0.8866002559661865</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9985427856445312</v>
+        <v>0.9855970740318298</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9108698964118958</v>
+        <v>0.9028233289718628</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8517882227897644</v>
+        <v>0.5737174153327942</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9985503554344177</v>
+        <v>0.9856906533241272</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9522168040275574</v>
+        <v>0.7533531188964844</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9985597729682922</v>
+        <v>0.9856981635093689</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9985557198524475</v>
+        <v>0.9855962991714478</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.998552143573761</v>
+        <v>0.9856436252593994</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9936491847038269</v>
+        <v>0.98256516456604</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.99856036901474</v>
+        <v>0.9857516884803772</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9985705614089966</v>
+        <v>0.9856477975845337</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9985520243644714</v>
+        <v>0.9856415390968323</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9985450506210327</v>
+        <v>0.9855791330337524</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9915502071380615</v>
+        <v>0.8498489856719971</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9985427856445312</v>
+        <v>0.9855970740318298</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9944217801094055</v>
+        <v>0.9432140588760376</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9985690116882324</v>
+        <v>0.9858301281929016</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9944217801094055</v>
+        <v>0.9432140588760376</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9985405206680298</v>
+        <v>0.985607385635376</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9835768342018127</v>
+        <v>0.9091465473175049</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.998565137386322</v>
+        <v>0.9857823848724365</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9943179488182068</v>
+        <v>0.9431324005126953</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9818537831306458</v>
+        <v>0.7171299457550049</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9985427856445312</v>
+        <v>0.9855970740318298</v>
       </c>
     </row>
     <row r="152">
@@ -4683,14 +4683,14 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9960247278213501</v>
+        <v>0.8737180233001709</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9985811710357666</v>
+        <v>0.9858483076095581</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9858638644218445</v>
+        <v>0.8993356227874756</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9985759258270264</v>
+        <v>0.9858149290084839</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9858255982398987</v>
+        <v>0.8978293538093567</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9985787868499756</v>
+        <v>0.9858249425888062</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9858477115631104</v>
+        <v>0.8985515832901001</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9985830783843994</v>
+        <v>0.9858329296112061</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6751877069473267</v>
+        <v>0.8718215823173523</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9985415935516357</v>
+        <v>0.9856495261192322</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9977350234985352</v>
+        <v>0.970195472240448</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9985650181770325</v>
+        <v>0.9856612682342529</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9942508935928345</v>
+        <v>0.9427728652954102</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.998570442199707</v>
+        <v>0.9858237504959106</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9633299708366394</v>
+        <v>0.9307333827018738</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9920673370361328</v>
+        <v>0.9478658437728882</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9939597845077515</v>
+        <v>0.9417237639427185</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9985427856445312</v>
+        <v>0.9855970740318298</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9920673370361328</v>
+        <v>0.9478658437728882</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9939835667610168</v>
+        <v>0.9415816068649292</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9985427856445312</v>
+        <v>0.9855970740318298</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9985564351081848</v>
+        <v>0.9857119917869568</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.998566210269928</v>
+        <v>0.9856696724891663</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9985564351081848</v>
+        <v>0.9857119917869568</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9985564351081848</v>
+        <v>0.9857119917869568</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.998566210269928</v>
+        <v>0.9856696724891663</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9985628724098206</v>
+        <v>0.9857959747314453</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9985260367393494</v>
+        <v>0.9854958653450012</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9985623955726624</v>
+        <v>0.9856166839599609</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9985525012016296</v>
+        <v>0.9856936931610107</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9985558390617371</v>
+        <v>0.9856576323509216</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9841519594192505</v>
+        <v>0.9099189043045044</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9985778331756592</v>
+        <v>0.985858142375946</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9985809326171875</v>
+        <v>0.9858641028404236</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9985818862915039</v>
+        <v>0.9858807325363159</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9985614418983459</v>
+        <v>0.9857749938964844</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9985578656196594</v>
+        <v>0.9857374429702759</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9985610842704773</v>
+        <v>0.9857118725776672</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9985598921775818</v>
+        <v>0.9856997132301331</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9558535218238831</v>
+        <v>0.8382821083068848</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9985585808753967</v>
+        <v>0.9857441782951355</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9985576272010803</v>
+        <v>0.9856693744659424</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9837906956672668</v>
+        <v>0.9092295169830322</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9925451874732971</v>
+        <v>0.9489309191703796</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9985742568969727</v>
+        <v>0.9858614206314087</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9985707998275757</v>
+        <v>0.9858444929122925</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9985743761062622</v>
+        <v>0.9858357906341553</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9985628724098206</v>
+        <v>0.9856593012809753</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7663668394088745</v>
+        <v>0.8574318885803223</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9985608458518982</v>
+        <v>0.9857843518257141</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9985685348510742</v>
+        <v>0.9857901334762573</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9985548853874207</v>
+        <v>0.985679566860199</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9922975897789001</v>
+        <v>0.9484716653823853</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9985804557800293</v>
+        <v>0.9858635067939758</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.998553454875946</v>
+        <v>0.9856736063957214</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.960433304309845</v>
+        <v>0.8450311422348022</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9985312223434448</v>
+        <v>0.9853990077972412</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9298276901245117</v>
+        <v>0.7363821268081665</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9985533356666565</v>
+        <v>0.9857044219970703</v>
       </c>
     </row>
   </sheetData>
